--- a/SCH-STH/Baseline Mapping/Botwana/4. BOTSWANA SCH STH Mid Term Evaluation - Urine Filtration CCA Form.xlsx
+++ b/SCH-STH/Baseline Mapping/Botwana/4. BOTSWANA SCH STH Mid Term Evaluation - Urine Filtration CCA Form.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\BOTSWANA SCH STH Mid Term Evaluation Forms 04.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="3135" windowWidth="21600" windowHeight="11385" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -151,12 +151,6 @@
     <t>The repeated code must be the same</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{6}$')</t>
-  </si>
-  <si>
-    <t>The format must be 123-123456</t>
-  </si>
-  <si>
     <t>u_recorder_id</t>
   </si>
   <si>
@@ -610,9 +604,6 @@
     <t>school_id_list</t>
   </si>
   <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as 123-123456 number only with dashes)</t>
-  </si>
-  <si>
     <t>4. BOTSWANA SCH/STH Mid Term Evaluation - Urine Filtration CCA Form</t>
   </si>
   <si>
@@ -623,6 +614,15 @@
   </si>
   <si>
     <t>Select the district</t>
+  </si>
+  <si>
+    <t>Enter unique ID from the diagnostic test (must be entered as 123-123456-123 number only with dashes)</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>The format must be 123-123456-123</t>
   </si>
 </sst>
 </file>
@@ -1104,10 +1104,10 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1169,10 +1169,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
@@ -1192,13 +1192,13 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>25</v>
@@ -1216,13 +1216,13 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="13"/>
@@ -1235,18 +1235,18 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>105</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="13"/>
@@ -1259,18 +1259,18 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="13"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>28</v>
@@ -1317,7 +1317,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>29</v>
@@ -1327,7 +1327,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="17"/>
       <c r="H8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="7" t="s">
@@ -1336,26 +1336,26 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="7" t="s">
@@ -1369,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>30</v>
@@ -1377,13 +1377,13 @@
       <c r="D10" s="14"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
@@ -1394,13 +1394,13 @@
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="13"/>
@@ -1419,17 +1419,17 @@
         <v>18</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="9"/>
       <c r="F12" s="19"/>
       <c r="G12" s="15"/>
       <c r="H12" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="7" t="s">
@@ -1440,20 +1440,20 @@
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="9"/>
       <c r="F13" s="19"/>
       <c r="G13" s="15"/>
       <c r="H13" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="7" t="s">
@@ -1464,20 +1464,20 @@
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="9"/>
       <c r="F14" s="19"/>
       <c r="G14" s="15"/>
       <c r="H14" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="7" t="s">
@@ -1488,20 +1488,20 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="9"/>
       <c r="F15" s="19"/>
       <c r="G15" s="15"/>
       <c r="H15" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="7" t="s">
@@ -1515,7 +1515,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>31</v>
@@ -1537,7 +1537,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>25</v>
@@ -1559,7 +1559,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>25</v>
@@ -1707,13 +1707,13 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1740,189 +1740,189 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,1135 +1937,1135 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E87" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E88" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E90" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E94" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E95" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E96" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E97" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E98" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E99" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E100" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E101" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E102" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E103" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E104" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E105" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B107" s="24">
         <v>101</v>
@@ -3074,12 +3074,12 @@
         <v>101</v>
       </c>
       <c r="F107" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B108" s="24">
         <v>102</v>
@@ -3088,12 +3088,12 @@
         <v>102</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B109" s="24">
         <v>103</v>
@@ -3102,12 +3102,12 @@
         <v>103</v>
       </c>
       <c r="F109" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B110" s="24">
         <v>104</v>
@@ -3116,12 +3116,12 @@
         <v>104</v>
       </c>
       <c r="F110" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B111" s="24">
         <v>105</v>
@@ -3130,12 +3130,12 @@
         <v>105</v>
       </c>
       <c r="F111" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B112" s="24">
         <v>106</v>
@@ -3144,12 +3144,12 @@
         <v>106</v>
       </c>
       <c r="F112" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B113" s="24">
         <v>107</v>
@@ -3158,12 +3158,12 @@
         <v>107</v>
       </c>
       <c r="F113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B114" s="24">
         <v>108</v>
@@ -3172,12 +3172,12 @@
         <v>108</v>
       </c>
       <c r="F114" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B115" s="24">
         <v>109</v>
@@ -3186,12 +3186,12 @@
         <v>109</v>
       </c>
       <c r="F115" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B116" s="24">
         <v>110</v>
@@ -3200,12 +3200,12 @@
         <v>110</v>
       </c>
       <c r="F116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B117" s="24">
         <v>111</v>
@@ -3214,12 +3214,12 @@
         <v>111</v>
       </c>
       <c r="F117" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B118" s="24">
         <v>112</v>
@@ -3228,12 +3228,12 @@
         <v>112</v>
       </c>
       <c r="F118" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B119" s="24">
         <v>113</v>
@@ -3242,12 +3242,12 @@
         <v>113</v>
       </c>
       <c r="F119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B120" s="24">
         <v>114</v>
@@ -3256,12 +3256,12 @@
         <v>114</v>
       </c>
       <c r="F120" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B121" s="24">
         <v>115</v>
@@ -3270,12 +3270,12 @@
         <v>115</v>
       </c>
       <c r="F121" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B122" s="24">
         <v>116</v>
@@ -3284,12 +3284,12 @@
         <v>116</v>
       </c>
       <c r="F122" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B123" s="24">
         <v>117</v>
@@ -3298,12 +3298,12 @@
         <v>117</v>
       </c>
       <c r="F123" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B124" s="24">
         <v>118</v>
@@ -3312,12 +3312,12 @@
         <v>118</v>
       </c>
       <c r="F124" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B125" s="24">
         <v>119</v>
@@ -3326,12 +3326,12 @@
         <v>119</v>
       </c>
       <c r="F125" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B126" s="24">
         <v>120</v>
@@ -3340,12 +3340,12 @@
         <v>120</v>
       </c>
       <c r="F126" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B127" s="24">
         <v>121</v>
@@ -3354,12 +3354,12 @@
         <v>121</v>
       </c>
       <c r="F127" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B128" s="24">
         <v>122</v>
@@ -3368,12 +3368,12 @@
         <v>122</v>
       </c>
       <c r="F128" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B129" s="24">
         <v>123</v>
@@ -3382,12 +3382,12 @@
         <v>123</v>
       </c>
       <c r="F129" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B130" s="24">
         <v>124</v>
@@ -3396,12 +3396,12 @@
         <v>124</v>
       </c>
       <c r="F130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B131" s="24">
         <v>125</v>
@@ -3410,12 +3410,12 @@
         <v>125</v>
       </c>
       <c r="F131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B132" s="24">
         <v>126</v>
@@ -3424,12 +3424,12 @@
         <v>126</v>
       </c>
       <c r="F132" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B133" s="24">
         <v>127</v>
@@ -3438,12 +3438,12 @@
         <v>127</v>
       </c>
       <c r="F133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B134" s="24">
         <v>128</v>
@@ -3452,12 +3452,12 @@
         <v>128</v>
       </c>
       <c r="F134" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B135" s="24">
         <v>129</v>
@@ -3466,12 +3466,12 @@
         <v>129</v>
       </c>
       <c r="F135" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B136" s="24">
         <v>130</v>
@@ -3480,12 +3480,12 @@
         <v>130</v>
       </c>
       <c r="F136" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B137" s="24">
         <v>131</v>
@@ -3494,12 +3494,12 @@
         <v>131</v>
       </c>
       <c r="F137" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B138" s="24">
         <v>132</v>
@@ -3508,12 +3508,12 @@
         <v>132</v>
       </c>
       <c r="F138" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B139" s="24">
         <v>133</v>
@@ -3522,12 +3522,12 @@
         <v>133</v>
       </c>
       <c r="F139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B140" s="24">
         <v>134</v>
@@ -3536,12 +3536,12 @@
         <v>134</v>
       </c>
       <c r="F140" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B141" s="24">
         <v>135</v>
@@ -3550,12 +3550,12 @@
         <v>135</v>
       </c>
       <c r="F141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B142" s="24">
         <v>136</v>
@@ -3564,12 +3564,12 @@
         <v>136</v>
       </c>
       <c r="F142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B143" s="24">
         <v>137</v>
@@ -3578,12 +3578,12 @@
         <v>137</v>
       </c>
       <c r="F143" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B144" s="24">
         <v>138</v>
@@ -3592,12 +3592,12 @@
         <v>138</v>
       </c>
       <c r="F144" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B145" s="24">
         <v>139</v>
@@ -3606,12 +3606,12 @@
         <v>139</v>
       </c>
       <c r="F145" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B146" s="24">
         <v>140</v>
@@ -3620,12 +3620,12 @@
         <v>140</v>
       </c>
       <c r="F146" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B147" s="24">
         <v>141</v>
@@ -3634,12 +3634,12 @@
         <v>141</v>
       </c>
       <c r="F147" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B148" s="24">
         <v>142</v>
@@ -3648,12 +3648,12 @@
         <v>142</v>
       </c>
       <c r="F148" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B149" s="24">
         <v>143</v>
@@ -3662,12 +3662,12 @@
         <v>143</v>
       </c>
       <c r="F149" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B150" s="24">
         <v>144</v>
@@ -3676,12 +3676,12 @@
         <v>144</v>
       </c>
       <c r="F150" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B151" s="24">
         <v>145</v>
@@ -3690,12 +3690,12 @@
         <v>145</v>
       </c>
       <c r="F151" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B152" s="24">
         <v>146</v>
@@ -3704,12 +3704,12 @@
         <v>146</v>
       </c>
       <c r="F152" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B153" s="24">
         <v>147</v>
@@ -3718,12 +3718,12 @@
         <v>147</v>
       </c>
       <c r="F153" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B154" s="24">
         <v>148</v>
@@ -3732,12 +3732,12 @@
         <v>148</v>
       </c>
       <c r="F154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B155" s="24">
         <v>149</v>
@@ -3746,12 +3746,12 @@
         <v>149</v>
       </c>
       <c r="F155" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B156" s="24">
         <v>150</v>
@@ -3760,12 +3760,12 @@
         <v>150</v>
       </c>
       <c r="F156" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B157" s="24">
         <v>151</v>
@@ -3774,12 +3774,12 @@
         <v>151</v>
       </c>
       <c r="F157" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B158" s="24">
         <v>152</v>
@@ -3788,12 +3788,12 @@
         <v>152</v>
       </c>
       <c r="F158" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B159" s="24">
         <v>153</v>
@@ -3802,12 +3802,12 @@
         <v>153</v>
       </c>
       <c r="F159" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B160" s="24">
         <v>154</v>
@@ -3816,12 +3816,12 @@
         <v>154</v>
       </c>
       <c r="F160" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B161" s="24">
         <v>155</v>
@@ -3830,12 +3830,12 @@
         <v>155</v>
       </c>
       <c r="F161" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B162" s="24">
         <v>156</v>
@@ -3844,12 +3844,12 @@
         <v>156</v>
       </c>
       <c r="F162" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B163" s="24">
         <v>157</v>
@@ -3858,12 +3858,12 @@
         <v>157</v>
       </c>
       <c r="F163" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B164" s="24">
         <v>158</v>
@@ -3872,12 +3872,12 @@
         <v>158</v>
       </c>
       <c r="F164" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B165" s="24">
         <v>159</v>
@@ -3886,12 +3886,12 @@
         <v>159</v>
       </c>
       <c r="F165" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B166" s="24">
         <v>160</v>
@@ -3900,7 +3900,7 @@
         <v>160</v>
       </c>
       <c r="F166" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2">
         <v>202106</v>
